--- a/Printed_Circuit_Boards/Mimic_HDMI_Shield/Mimic_HDMI-edge_BOM.xlsx
+++ b/Printed_Circuit_Boards/Mimic_HDMI_Shield/Mimic_HDMI-edge_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\PCBs\ISS Mimic\HDMI_Shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\PCBs\ISS Mimic\FINAL_HDMI_Shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF67DE34-7150-4DB8-9366-ED900DF2DB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB9FCD-08B7-4265-B17B-A21DF013E527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -75,9 +75,6 @@
     <t>U1,U2</t>
   </si>
   <si>
-    <t>J1,J3,J4,J5,J6</t>
-  </si>
-  <si>
     <t>1x2 2.54mm Header</t>
   </si>
   <si>
@@ -103,13 +100,25 @@
   </si>
   <si>
     <t>https://www.amazon.com/MCIGICM-Header-2-45mm-Arduino-Connector/dp/B07PKKY8BX/</t>
+  </si>
+  <si>
+    <t>M1,M2,M3,M4</t>
+  </si>
+  <si>
+    <t>2pin 2.54mm Screw Terminal</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07WKL6MRM/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +307,15 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1122,7 +1143,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.3"/>
@@ -1171,7 +1192,7 @@
     </row>
     <row r="3" spans="1:6" ht="29.05" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1206,26 +1227,26 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1234,11 +1255,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1247,11 +1268,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -1259,10 +1280,19 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
@@ -1397,8 +1427,9 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{17412C4F-37F8-493B-ABBD-7ED47148FDD4}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{908A9FBD-E163-4E29-B2B3-9EF7C3DC9B66}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>